--- a/SimpCity US17 Test Document (3 Pass 0 Fail).xlsx
+++ b/SimpCity US17 Test Document (3 Pass 0 Fail).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huiyi\Downloads\Year 3-Poly\Sem 3.2 DevOps\Tesr Documents\Sprint 3 V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claris Toh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE19446-24A3-4FD9-BD38-CDAD1A6CDE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5926CDC5-5A00-41F0-9E9D-D03E125955B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="2160" windowWidth="21600" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1395" windowWidth="27930" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US17 Sprint 3 (2)" sheetId="19" r:id="rId1"/>
@@ -1158,32 +1158,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2006,10 +2006,10 @@
   <sheetData>
     <row r="1" spans="1:165" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="120"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="38"/>
       <c r="E1" s="36"/>
       <c r="F1" s="40"/>
@@ -2022,24 +2022,24 @@
     </row>
     <row r="2" spans="1:165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="112"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="113" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:165" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,20 +2162,20 @@
     </row>
     <row r="7" spans="1:165" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="120"/>
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
@@ -2306,20 +2306,20 @@
       </c>
     </row>
     <row r="14" spans="1:165" s="87" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116">
+      <c r="A14" s="112">
         <v>1</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
@@ -2481,9 +2481,9 @@
       <c r="FI14" s="107"/>
     </row>
     <row r="15" spans="1:165" s="81" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="82" t="s">
         <v>56</v>
       </c>
@@ -2816,6 +2816,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -2823,11 +2828,6 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J17 G15:H17" xr:uid="{FBCBC346-C3D3-4183-9371-4EECE0A2006D}">
@@ -2850,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1865B1-F1CB-4123-9263-8B5A0D50763B}">
   <dimension ref="A1:FI35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,10 +2871,10 @@
   <sheetData>
     <row r="1" spans="1:165" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="120"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="38"/>
       <c r="E1" s="36"/>
       <c r="F1" s="40"/>
@@ -2887,24 +2887,24 @@
     </row>
     <row r="2" spans="1:165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="112"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="113" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:165" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,20 +3027,20 @@
     </row>
     <row r="7" spans="1:165" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="120"/>
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="60" t="s">
@@ -3171,20 +3171,20 @@
       </c>
     </row>
     <row r="14" spans="1:165" s="87" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116">
+      <c r="A14" s="112">
         <v>1</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
@@ -3346,9 +3346,9 @@
       <c r="FI14" s="107"/>
     </row>
     <row r="15" spans="1:165" s="81" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="82" t="s">
         <v>56</v>
       </c>
@@ -3616,24 +3616,24 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="112"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="112"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113" t="s">
+      <c r="I20" s="118"/>
+      <c r="J20" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="114"/>
+      <c r="K20" s="119"/>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
@@ -3751,20 +3751,20 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="115"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="115" t="s">
+      <c r="E25" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="115"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="115"/>
+      <c r="I25" s="120"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3890,20 +3890,20 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="116">
+      <c r="A32" s="112">
         <v>1</v>
       </c>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
       <c r="I32" s="83"/>
@@ -3911,9 +3911,9 @@
       <c r="K32" s="84"/>
     </row>
     <row r="33" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="82" t="s">
         <v>56</v>
       </c>
@@ -3999,11 +3999,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
@@ -4014,14 +4017,11 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F15:F17 F33:F35" xr:uid="{1D1BBC49-E901-4E78-9280-F43F99BEB8E7}">
